--- a/Design - список деталей.xlsx
+++ b/Design - список деталей.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79131\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood.Furniture.Kitchen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6F28E0-E446-43DD-BBA5-FD429C1D46D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EBF2C9-6C63-4B97-9B40-163DF0B03455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Позиция</t>
   </si>
@@ -44,12 +44,29 @@
   <si>
     <t>Кол-во, шт</t>
   </si>
+  <si>
+    <t>Общий метраж</t>
+  </si>
+  <si>
+    <t>Готово</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,14 +92,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -360,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,9 +396,10 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,8 +415,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13</v>
       </c>
@@ -408,12 +438,15 @@
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <f>B2*E2</f>
         <v>5196</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -429,12 +462,15 @@
       <c r="E3">
         <v>36</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G15" si="0">B3*E3</f>
         <v>28800</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14</v>
       </c>
@@ -450,12 +486,15 @@
       <c r="E4">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>4236</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -471,12 +510,15 @@
       <c r="E5">
         <v>24</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>16464</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -492,12 +534,15 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12</v>
       </c>
@@ -513,12 +558,15 @@
       <c r="E7">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>12700</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -534,12 +582,15 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>2460</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -555,12 +606,15 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>2456</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -576,12 +630,15 @@
       <c r="E10">
         <v>12</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>6612</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -597,12 +654,15 @@
       <c r="E11">
         <v>12</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -618,12 +678,15 @@
       <c r="E12">
         <v>36</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>15912</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -639,12 +702,15 @@
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>1416</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -660,12 +726,15 @@
       <c r="E14">
         <v>40</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>9680</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -681,15 +750,30 @@
       <c r="E15">
         <v>20</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>4100</v>
       </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>SUM(E2:E16)</f>
+        <v>228</v>
+      </c>
+      <c r="G17" s="2">
         <f>SUM(G2:G16)</f>
         <v>118632</v>
+      </c>
+      <c r="H17">
+        <f>SUM(H2:H16)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>H17/E17</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
